--- a/inst/extdata/LC_columns.xlsx
+++ b/inst/extdata/LC_columns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolas\Documents\R\aRmel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolas\Documents\R\proteoCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -78,7 +78,7 @@
     <t>packed bed</t>
   </si>
   <si>
-    <t>EasySpray PepMap RSLC column (2.0 µm C18-coated particles, 50 cm * 75 µm ID, ThermoFisher Scientific P/N ES903)</t>
+    <t>EasySpray PepMap RSLC column (2 µm C18-coated particles, 50 cm * 75 µm ID, ThermoFisher Scientific P/N ES903)</t>
   </si>
   <si>
     <t>ES903</t>
@@ -132,7 +132,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Acclaim PepMap trap column (5.0 µm C18-coated particles, 0.5 cm * 300 µm ID, ThermoFisher Scientific P/N 160454)</t>
+    <t>Acclaim PepMap trap column (5 µm C18-coated particles, 0.5 cm * 300 µm ID, ThermoFisher Scientific P/N 160454)</t>
   </si>
   <si>
     <t>160454</t>
@@ -201,26 +201,113 @@
     <t>experimental 15 cm monolithic capillary column (Bruker Daltonics)</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>monolithic</t>
   </si>
   <si>
-    <t>Bruker C18 MOSAIC</t>
-  </si>
-  <si>
-    <t>experimental 15 cm monolithic capillary column (Bruker)</t>
+    <t>experimental 15 cm monolithic capillary column (Bruker Daltonics) column (C18-coated particles, 15 cm)</t>
   </si>
   <si>
     <t>monolithic capillary MOSAIC column</t>
   </si>
   <si>
-    <t xml:space="preserve">15 cm * 75 µm ID monolithic capillary MOSAIC column (Bruker,  1908374) </t>
+    <t>monolithic capillary MOSAIC column (C18-coated particles, 15 cm * 75 µm ID, Bruker P/N 1908374)</t>
+  </si>
+  <si>
+    <t>1908374</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Acquity UPLC Peptide BEH C18 column (1.7 µm C18-coated particles, 15 cm * 2100 µm ID, Waters P/N 186002353)</t>
+  </si>
+  <si>
+    <t>186002353</t>
+  </si>
+  <si>
+    <t>Fractionation</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Acquity UPLC Peptide BEH C18 column (1.7 µm C18-coated particles, 30 cm * 2100 µm ID, Waters P/N 186005792)</t>
+  </si>
+  <si>
+    <t>186005792</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate CSI 25 cm column</t>
+  </si>
+  <si>
+    <t>Aurora column</t>
+  </si>
+  <si>
+    <t>Acquity UPLC Peptide BEH C18 column, 15 cm long</t>
+  </si>
+  <si>
+    <t>Acquity UPLC Peptide BEH C18 column, 30 cm long</t>
+  </si>
+  <si>
+    <t>Acquity Peptide BEH C18 column</t>
+  </si>
+  <si>
+    <t>Bruker C18 MOSAIC column</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate CSI column (C18-coated particles, 25 cm * 75 C18 UHPLC column</t>
+  </si>
+  <si>
+    <t>experimental Inertsil ODS-4</t>
+  </si>
+  <si>
+    <t>Intersil ODS4 trap column</t>
+  </si>
+  <si>
+    <t>experimental Inertsil ODS-4 trap column (C18-coated particles, 3 cm)</t>
+  </si>
+  <si>
+    <t>IonOptics</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate CSI 60 cm column</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate XT 25 cm column</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate XT 60 cm column</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate XT column (C18-coated particles, 25 cm * 75 C18 UHPLC column</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate CSI column (C18-coated particles, 60 cm * 75 C18 UHPLC column</t>
+  </si>
+  <si>
+    <t>Aurora Ultimate XT column (C18-coated particles, 60 cm * 75 C18 UHPLC column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,6 +321,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,17 +348,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,24 +655,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="111.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,10 +721,10 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
@@ -659,9 +756,10 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E3" s="3"/>
       <c r="G3" t="s">
         <v>17</v>
       </c>
@@ -688,9 +786,10 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="3"/>
       <c r="G4" t="s">
         <v>17</v>
       </c>
@@ -717,10 +816,10 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
@@ -752,6 +851,8 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="G6" t="s">
         <v>17</v>
       </c>
@@ -778,10 +879,10 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F7" t="s">
@@ -813,10 +914,10 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F8" t="s">
@@ -848,10 +949,10 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -878,16 +979,20 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
         <v>62</v>
@@ -902,35 +1007,273 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="2">
-        <v>1908374</v>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="4">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/LC_columns.xlsx
+++ b/inst/extdata/LC_columns.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolas\Documents\R\proteoCraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aRmel_package\proteoCraft\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -228,9 +228,6 @@
     <t>1.7</t>
   </si>
   <si>
-    <t>Acquity UPLC Peptide BEH C18 column (1.7 µm C18-coated particles, 15 cm * 2100 µm ID, Waters P/N 186002353)</t>
-  </si>
-  <si>
     <t>186002353</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>Acquity UPLC Peptide BEH C18 column (1.7 µm C18-coated particles, 30 cm * 2100 µm ID, Waters P/N 186005792)</t>
-  </si>
-  <si>
     <t>186005792</t>
   </si>
   <si>
@@ -298,6 +292,84 @@
   </si>
   <si>
     <t>Aurora Ultimate XT column (C18-coated particles, 60 cm * 75 C18 UHPLC column</t>
+  </si>
+  <si>
+    <t>BEH125</t>
+  </si>
+  <si>
+    <t>proprietary polyphenyl material</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Z-HILIC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>BioResolve RP mAb Polyphenyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquity Premier BEH C18 </t>
+  </si>
+  <si>
+    <t>Xbridge Premier Protein BEH C4</t>
+  </si>
+  <si>
+    <t>Acquity Premier CSH C18 - VanGuard FIT</t>
+  </si>
+  <si>
+    <t>Xselect Premier HSS C18</t>
+  </si>
+  <si>
+    <t>Atlantis Premier BEH Z-HILIC</t>
+  </si>
+  <si>
+    <t>Acquity UPLC BEH C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquity UPLC BEH SEC guard  column </t>
+  </si>
+  <si>
+    <t>4600</t>
+  </si>
+  <si>
+    <t>Acquity UPLC Peptide BEH C18 column (1.7 µm C18-coated particles, 15 cm * 2.1 mm ID, Waters P/N 186002353)</t>
+  </si>
+  <si>
+    <t>Acquity UPLC Peptide BEH C18 column (1.7 µm C18-coated particles, 30 cm * 2.1 mm ID, Waters P/N 186005792)</t>
+  </si>
+  <si>
+    <t>Acquity UPLC BEH SEC guard  column (125 Å pore size 1.7 µm BEH12 particles,  30 mm * 4.6 mm ID, Waters P/N 186006504)</t>
+  </si>
+  <si>
+    <t>BioResolve RP mAb Polyphenyl (450 Å pore size 2.7 µm proprietary polyphenyl particles, 100 mm * 2.7 mm ID, Waters P/N 186008945)</t>
+  </si>
+  <si>
+    <t>Acquity Premier BEH C18 (130 Å pore size 1.7 µm BEH C18 particles, 50 mm * 1.7 mm ID, Waters P/N 186009452)</t>
+  </si>
+  <si>
+    <t>Xbridge Premier Protein BEH C4 (300 Å pore size 2.5 µm C4 particles, 50 mm * 2.1 mm ID, Waters P/N 186010329)</t>
+  </si>
+  <si>
+    <t>Acquity Premier CSH C18 - VanGuard FIT (130 Å pore size 1.7 µm CSH C18 particles, 100 mm * 2.1 mm ID, Waters P/N 186009464)</t>
+  </si>
+  <si>
+    <t>Xselect Premier HSS C18 (130 Å pore size 2.5 µm HSS C18 particles, 50 mm * 4.6 mm ID, Waters P/N 186010029)</t>
+  </si>
+  <si>
+    <t>Atlantis Premier BEH Z-HILIC (1.7 µm Z-HILIC particles, 100 mm * 2.1 mm ID, Waters P/N 186009982)</t>
+  </si>
+  <si>
+    <t>Acquity UPLC BEH C8 (1.7 µm C8 particles, 100 mm * 2.1 mm ID, Waters P/N 186002878)</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Pore.size.(Å)</t>
   </si>
 </sst>
 </file>
@@ -352,12 +424,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -655,28 +739,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="111.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="124.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,22 +781,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -727,26 +815,27 @@
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -760,23 +849,25 @@
         <v>25</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -790,23 +881,25 @@
         <v>14</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -822,26 +915,27 @@
       <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -853,23 +947,25 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -885,26 +981,27 @@
       <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -920,26 +1017,27 @@
       <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -955,31 +1053,32 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -988,26 +1087,28 @@
         <v>60</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -1018,129 +1119,135 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4">
         <v>60</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14" s="4">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="4">
         <v>25</v>
@@ -1148,34 +1255,35 @@
       <c r="E15" s="4">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4">
         <v>60</v>
@@ -1183,94 +1291,433 @@
       <c r="E16" s="4">
         <v>75</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="J16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="4">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="5">
+        <v>186006504</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="5">
+        <v>186008945</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2100</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="4">
-        <v>60</v>
-      </c>
-      <c r="E18" s="4">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="5">
+        <v>186009452</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="5">
+        <v>186010329</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>2100</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
+      <c r="G23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="5">
+        <v>186009464</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>4600</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="5">
+        <v>186010029</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>2100</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="5">
+        <v>186009982</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>2100</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="5">
+        <v>186002878</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/LC_columns.xlsx
+++ b/inst/extdata/LC_columns.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -207,18 +207,9 @@
     <t>monolithic</t>
   </si>
   <si>
-    <t>experimental 15 cm monolithic capillary column (Bruker Daltonics) column (C18-coated particles, 15 cm)</t>
-  </si>
-  <si>
     <t>monolithic capillary MOSAIC column</t>
   </si>
   <si>
-    <t>monolithic capillary MOSAIC column (C18-coated particles, 15 cm * 75 µm ID, Bruker P/N 1908374)</t>
-  </si>
-  <si>
-    <t>1908374</t>
-  </si>
-  <si>
     <t>Waters</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t>Intersil ODS4 trap column</t>
   </si>
   <si>
-    <t>experimental Inertsil ODS-4 trap column (C18-coated particles, 3 cm)</t>
-  </si>
-  <si>
     <t>IonOptics</t>
   </si>
   <si>
@@ -370,6 +358,27 @@
   </si>
   <si>
     <t>Pore.size.(Å)</t>
+  </si>
+  <si>
+    <t>Kyoto Monotech column</t>
+  </si>
+  <si>
+    <t>Kyoto Monotech</t>
+  </si>
+  <si>
+    <t>experimental 15 cm monolithic capillary column (Bruker Daltonics) column (C18-coated polymer, 15 cm)</t>
+  </si>
+  <si>
+    <t>15 cm monolithic capillary column (Kyoto Monotech) column (C18-coated polymer, 15 cm)</t>
+  </si>
+  <si>
+    <t>monolithic capillary MOSAIC column (C18-coated polymer, 15 cm * 75 µm ID, Bruker)</t>
+  </si>
+  <si>
+    <t>15 cm monolithic capillary column (Kyoto Monotech)</t>
+  </si>
+  <si>
+    <t>Inertsil ODS-4 trap column (C18-coated particles, 3 cm)</t>
   </si>
 </sst>
 </file>
@@ -739,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -801,52 +810,46 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="7"/>
@@ -855,68 +858,66 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K4" s="2"/>
       <c r="L4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
@@ -926,26 +927,28 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -956,46 +959,42 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
         <v>21</v>
@@ -1003,7 +1002,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -1012,7 +1011,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>48</v>
@@ -1028,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -1039,7 +1038,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -1051,7 +1050,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>49</v>
@@ -1064,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
         <v>21</v>
@@ -1075,63 +1074,71 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="L10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
@@ -1142,16 +1149,20 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D12" s="4">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" t="s">
         <v>17</v>
@@ -1160,22 +1171,24 @@
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4">
         <v>25</v>
@@ -1184,7 +1197,7 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" t="s">
@@ -1194,10 +1207,10 @@
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1205,13 +1218,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4">
         <v>60</v>
@@ -1220,7 +1233,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" t="s">
@@ -1230,10 +1243,10 @@
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
@@ -1241,35 +1254,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4">
-        <v>75</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="K15" s="5">
+        <v>186008945</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -1277,35 +1292,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4">
-        <v>60</v>
-      </c>
-      <c r="E16" s="4">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" t="s">
-        <v>87</v>
+      <c r="J16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="5">
+        <v>186009452</v>
       </c>
       <c r="L16" t="s">
         <v>21</v>
@@ -1313,60 +1330,64 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="K17" s="5">
+        <v>186010329</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H18" t="s">
         <v>17</v>
       </c>
@@ -1374,86 +1395,84 @@
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="K18" s="5">
+        <v>186009464</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>4600</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2.5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="5">
-        <v>186006504</v>
+        <v>186010029</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="E20">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20" s="5">
-        <v>186008945</v>
+        <v>186009982</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -1461,37 +1480,35 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>2100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>109</v>
+      <c r="J21" t="s">
+        <v>110</v>
       </c>
       <c r="K21" s="5">
-        <v>186009452</v>
+        <v>186002878</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
@@ -1499,64 +1516,54 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>2100</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="5">
-        <v>186010329</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>2100</v>
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" t="s">
         <v>17</v>
       </c>
@@ -1564,123 +1571,153 @@
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="5">
-        <v>186009464</v>
+        <v>37</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>4600</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" t="s">
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="5">
-        <v>186010029</v>
+        <v>42</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>2100</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K25" s="5">
-        <v>186009982</v>
+        <v>186006504</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="4">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>2100</v>
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="5">
-        <v>186002878</v>
+        <v>101</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1688,6 +1725,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
@@ -1710,14 +1748,10 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/LC_columns.xlsx
+++ b/inst/extdata/LC_columns.xlsx
@@ -30,15 +30,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Length.(cm)</t>
-  </si>
-  <si>
-    <t>ID.(µm)</t>
-  </si>
-  <si>
-    <t>Particles.size.(µm)</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>130</t>
   </si>
   <si>
-    <t>Pore.size.(Å)</t>
-  </si>
-  <si>
     <t>Kyoto Monotech column</t>
   </si>
   <si>
@@ -379,6 +367,18 @@
   </si>
   <si>
     <t>Inertsil ODS-4 trap column (C18-coated particles, 3 cm)</t>
+  </si>
+  <si>
+    <t>ID (µm)</t>
+  </si>
+  <si>
+    <t>Length (cm)</t>
+  </si>
+  <si>
+    <t>Particles size (µm)</t>
+  </si>
+  <si>
+    <t>Pore size (Å)</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,342 +781,342 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
         <v>25</v>
@@ -1125,34 +1125,34 @@
         <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4">
         <v>60</v>
@@ -1161,34 +1161,34 @@
         <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4">
         <v>25</v>
@@ -1197,34 +1197,34 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4">
         <v>60</v>
@@ -1233,72 +1233,72 @@
         <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7">
         <v>2.7</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K15" s="5">
         <v>186008945</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -1307,36 +1307,36 @@
         <v>2100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K16" s="5">
         <v>186009452</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
@@ -1348,33 +1348,33 @@
         <v>2.5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K17" s="5">
         <v>186010329</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
@@ -1383,36 +1383,36 @@
         <v>2100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K18" s="5">
         <v>186009464</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
@@ -1424,33 +1424,33 @@
         <v>2.5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K19" s="5">
         <v>186010029</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4">
         <v>10</v>
@@ -1459,34 +1459,34 @@
         <v>2100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K20" s="5">
         <v>186009982</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
         <v>10</v>
@@ -1495,229 +1495,229 @@
         <v>2100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K21" s="5">
         <v>186002878</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
         <v>100</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>103</v>
       </c>
       <c r="K25" s="5">
         <v>186006504</v>
       </c>
       <c r="L25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">

--- a/inst/extdata/LC_columns.xlsx
+++ b/inst/extdata/LC_columns.xlsx
@@ -249,9 +249,6 @@
     <t>experimental Inertsil ODS-4</t>
   </si>
   <si>
-    <t>Intersil ODS4 trap column</t>
-  </si>
-  <si>
     <t>IonOptics</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>Pore size (Å)</t>
+  </si>
+  <si>
+    <t>Inertsil ODS4 trap column</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -810,13 +810,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>57</v>
@@ -831,7 +831,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
@@ -861,7 +861,7 @@
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" t="s">
@@ -893,7 +893,7 @@
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
@@ -1116,7 +1116,7 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4">
         <v>25</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4">
         <v>60</v>
@@ -1171,10 +1171,10 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4">
         <v>25</v>
@@ -1207,10 +1207,10 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4">
         <v>60</v>
@@ -1243,10 +1243,10 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -1272,16 +1272,16 @@
         <v>2.7</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="5">
         <v>186008945</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -1310,7 +1310,7 @@
         <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1319,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="5">
         <v>186009452</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -1348,16 +1348,16 @@
         <v>2.5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="5">
         <v>186010329</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -1386,7 +1386,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1395,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="5">
         <v>186009464</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -1424,7 +1424,7 @@
         <v>2.5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1433,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="5">
         <v>186010029</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -1463,13 +1463,13 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="5">
         <v>186009982</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -1499,13 +1499,13 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K21" s="5">
         <v>186002878</v>
@@ -1519,7 +1519,7 @@
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
@@ -1612,10 +1612,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -1624,22 +1624,22 @@
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" s="5">
         <v>186006504</v>
@@ -1675,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>63</v>
@@ -1711,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>66</v>
